--- a/structure.xlsx
+++ b/structure.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wding/Projects/Github/bmzip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E17153A6-6C7E-2E49-A5C6-CDA25226DDE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BD4361-48A3-EF43-9D72-84FEDAB2B5CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27540" yWindow="1640" windowWidth="27640" windowHeight="16940" xr2:uid="{44CE7D83-8765-4041-8F58-EDBF1CDF0E40}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{44CE7D83-8765-4041-8F58-EDBF1CDF0E40}"/>
   </bookViews>
   <sheets>
     <sheet name="structrure" sheetId="1" r:id="rId1"/>
+    <sheet name="bmi" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
   <si>
     <t>EOF</t>
   </si>
@@ -42,15 +43,9 @@
     <t>Q</t>
   </si>
   <si>
-    <t>start position of each block (real offset on disk)</t>
-  </si>
-  <si>
     <t>block_offset</t>
   </si>
   <si>
-    <t>List of block start offset</t>
-  </si>
-  <si>
     <t>No. of blocks</t>
   </si>
   <si>
@@ -81,9 +76,6 @@
     <t>block_size - 6</t>
   </si>
   <si>
-    <t>formats</t>
-  </si>
-  <si>
     <t>Compressed data by zlib:deflate</t>
   </si>
   <si>
@@ -111,36 +103,12 @@
     <t>block_magic</t>
   </si>
   <si>
-    <t>Block 1</t>
-  </si>
-  <si>
     <t>"chr1"</t>
   </si>
   <si>
-    <t>name_len</t>
-  </si>
-  <si>
-    <t>f"{name_len}s"</t>
-  </si>
-  <si>
-    <t>tag string</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>length of the tag string</t>
-  </si>
-  <si>
-    <t>tag_len</t>
-  </si>
-  <si>
-    <t>List of tags (["sample1","chr1"])</t>
-  </si>
-  <si>
     <t>Total size of this chunk (tail not included)</t>
   </si>
   <si>
@@ -156,48 +124,18 @@
     <t>chunk_magic</t>
   </si>
   <si>
-    <t>Chunk 1</t>
-  </si>
-  <si>
     <t>"chrom"</t>
   </si>
   <si>
-    <t xml:space="preserve"> tag string</t>
-  </si>
-  <si>
-    <t>List of tags: for example, ["chrom"]</t>
-  </si>
-  <si>
-    <t>length of tag list</t>
-  </si>
-  <si>
-    <t>n_tags</t>
-  </si>
-  <si>
     <t>"cov"</t>
   </si>
   <si>
-    <t xml:space="preserve"> name string</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>length of the name string</t>
-  </si>
-  <si>
-    <t>List of names: for example ["mc","cov"]</t>
-  </si>
-  <si>
     <t>"B"</t>
   </si>
   <si>
     <t>fromat_len</t>
   </si>
   <si>
-    <t>f"{format_len}s"</t>
-  </si>
-  <si>
     <t>format (string)</t>
   </si>
   <si>
@@ -256,13 +194,184 @@
   </si>
   <si>
     <t>Field</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>message, such as reference genome version</t>
+  </si>
+  <si>
+    <t>message_len</t>
+  </si>
+  <si>
+    <t>length of message string</t>
+  </si>
+  <si>
+    <t>mm10</t>
+  </si>
+  <si>
+    <t>start offset of 1st record in each block (virtual)</t>
+  </si>
+  <si>
+    <t>List of column names: for example ["mc","cov"]</t>
+  </si>
+  <si>
+    <t>n_dim</t>
+  </si>
+  <si>
+    <t>dname_len</t>
+  </si>
+  <si>
+    <t>dim</t>
+  </si>
+  <si>
+    <t>length of the dim name string</t>
+  </si>
+  <si>
+    <t>col_len</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>length of the column name string</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> column name string</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>List of dimension title: for example, ["sampleID","chrom"]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chunk 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(chunk_start_offset)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Block 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (chunk_start_offset + 10)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">chunk_tail </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(chunk_start_offset + chunk_size)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">List of 1st record start virtual offset in each block </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(chunk_tail_offset + 16)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">List of dimensions (["sample1","chr1"]) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(chunk_tail_offset + 16 + n_blocks * 8)</t>
+    </r>
+  </si>
+  <si>
+    <t>length of the dim string</t>
+  </si>
+  <si>
+    <t>dim string</t>
+  </si>
+  <si>
+    <r>
+      <t>length of dimensions (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n_dim_offset &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> dimension name string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(&gt; header_size)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -308,8 +417,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,18 +452,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -402,47 +518,6 @@
         <color rgb="FF00B050"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF00B050"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF00B050"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF00B050"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF00B050"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF00B050"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -808,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -816,241 +891,229 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1367,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FCEFFC-7AFE-1449-99C7-256FAD9190A7}">
-  <dimension ref="B1:G45"/>
+  <dimension ref="B1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B21" sqref="B21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1379,654 +1442,717 @@
     <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="51.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="81" t="s">
+    <row r="1" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="30"/>
+      <c r="C3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="27">
+        <v>5</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="30"/>
+      <c r="C4" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="27">
+        <v>4</v>
+      </c>
+      <c r="G4" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="30"/>
+      <c r="C5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="27">
+        <v>8</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="31"/>
+      <c r="C6" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="27">
+        <v>2</v>
+      </c>
+      <c r="G6" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="31"/>
+      <c r="C7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="30"/>
+      <c r="C8" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="27">
+        <v>1</v>
+      </c>
+      <c r="G8" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25"/>
+      <c r="C9" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
+      <c r="C10" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="27">
+        <v>1</v>
+      </c>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="30"/>
+      <c r="C11" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="25"/>
+      <c r="C13" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="25"/>
+      <c r="C14" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1</v>
+      </c>
+      <c r="G14" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="25"/>
+      <c r="C15" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="30"/>
+      <c r="C17" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="27">
+        <v>1</v>
+      </c>
+      <c r="G17" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="25"/>
+      <c r="C18" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="25"/>
+      <c r="C19" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="22">
+        <v>1</v>
+      </c>
+      <c r="G19" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="15"/>
+      <c r="C23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="66"/>
+      <c r="C24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="64">
+        <v>8</v>
+      </c>
+      <c r="G24" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
+    </row>
+    <row r="26" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="66"/>
+      <c r="C26" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="66"/>
+      <c r="C27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="14">
+        <v>2</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="66"/>
+      <c r="C28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="10">
+        <v>2</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="66"/>
+      <c r="C29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="66"/>
+      <c r="C30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="10">
+        <v>2</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="2:7" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="70"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="72"/>
+    </row>
+    <row r="32" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="66"/>
+      <c r="C32" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42"/>
+    </row>
+    <row r="33" spans="2:7" ht="13" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="66"/>
+      <c r="C33" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="75"/>
+    </row>
+    <row r="34" spans="2:7" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="66"/>
+      <c r="C34" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+    </row>
+    <row r="35" spans="2:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="70"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="72"/>
+    </row>
+    <row r="36" spans="2:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="76"/>
+      <c r="C36" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="80" t="s">
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="73"/>
+      <c r="C37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="7">
+        <v>8</v>
+      </c>
+      <c r="G37" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="66"/>
+      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="4">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="62"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="66"/>
+      <c r="C40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="4">
+        <v>8</v>
+      </c>
+      <c r="G40" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="66"/>
+      <c r="C41" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="62"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="66"/>
+      <c r="C42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="64">
+        <v>1</v>
+      </c>
+      <c r="G42" s="65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="66"/>
+      <c r="C43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="64" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" s="1" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="77"/>
-    </row>
-    <row r="3" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="70"/>
-      <c r="C3" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="67">
-        <v>5</v>
-      </c>
-      <c r="G3" s="76" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="70"/>
-      <c r="C4" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="67">
-        <v>4</v>
-      </c>
-      <c r="G4" s="76">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="70"/>
-      <c r="C5" s="62" t="s">
+      <c r="F43" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="67">
-        <v>8</v>
-      </c>
-      <c r="G5" s="66">
+      <c r="G43" s="65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+    </row>
+    <row r="45" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="37"/>
+    </row>
+    <row r="46" spans="2:7" ht="11" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+    </row>
+    <row r="47" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="37"/>
+    </row>
+    <row r="48" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="70"/>
-      <c r="C6" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="67">
-        <v>1</v>
-      </c>
-      <c r="G6" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="63"/>
-      <c r="C7" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="74"/>
-    </row>
-    <row r="8" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="70"/>
-      <c r="C8" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="67">
-        <v>1</v>
-      </c>
-      <c r="G8" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="70"/>
-      <c r="C9" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="66" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="73"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="71"/>
-    </row>
-    <row r="11" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="63"/>
-      <c r="C11" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="64"/>
-    </row>
-    <row r="12" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="63"/>
-      <c r="C12" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="60">
-        <v>1</v>
-      </c>
-      <c r="G12" s="59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="63"/>
-      <c r="C13" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="73"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="71"/>
-    </row>
-    <row r="15" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="70"/>
-      <c r="C15" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="67">
-        <v>1</v>
-      </c>
-      <c r="G15" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="63"/>
-      <c r="C16" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="64"/>
-    </row>
-    <row r="17" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="63"/>
-      <c r="C17" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="60">
-        <v>1</v>
-      </c>
-      <c r="G17" s="59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
-      <c r="C18" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" s="1" customFormat="1" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-    </row>
-    <row r="20" spans="2:7" s="1" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="50"/>
-    </row>
-    <row r="21" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="49"/>
-      <c r="C21" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="17">
-        <v>2</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
-      <c r="C22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="44">
-        <v>8</v>
-      </c>
-      <c r="G22" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="19"/>
-      <c r="C23" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="47"/>
-    </row>
-    <row r="24" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="19"/>
-      <c r="C24" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="44">
-        <v>1</v>
-      </c>
-      <c r="G24" s="43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
-      <c r="C25" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" s="1" customFormat="1" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="41"/>
-    </row>
-    <row r="27" spans="2:7" s="1" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="19"/>
-      <c r="C27" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="19"/>
-      <c r="C28" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="40">
-        <v>2</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="19"/>
-      <c r="C29" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="36">
-        <v>2</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="19"/>
-      <c r="C30" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="19"/>
-      <c r="C31" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="36">
-        <v>2</v>
-      </c>
-      <c r="G31" s="35"/>
-    </row>
-    <row r="32" spans="2:7" s="1" customFormat="1" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="34"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="32"/>
-    </row>
-    <row r="33" spans="2:7" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
-      <c r="C33" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="29"/>
-    </row>
-    <row r="34" spans="2:7" s="1" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
-      <c r="C34" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="2:7" s="1" customFormat="1" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="19"/>
-      <c r="C35" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="23"/>
-      <c r="C36" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="21">
-        <v>8</v>
-      </c>
-      <c r="G36" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="19"/>
-      <c r="C37" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="17">
-        <v>8</v>
-      </c>
-      <c r="G37" s="16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="2:7" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
-      <c r="C39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="10">
-        <v>8</v>
-      </c>
-      <c r="G39" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" s="1" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="2:7" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="2:7" s="1" customFormat="1" ht="11" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="2:7" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="2:7" s="1" customFormat="1" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="2:7" s="1" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+    </row>
+    <row r="49" ht="19" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="C27:G27"/>
+  <mergeCells count="24">
+    <mergeCell ref="C36:G36"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="B35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8BC542-D28C-3441-A474-4F512B93E05C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>